--- a/data/allemand.xlsx
+++ b/data/allemand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -4262,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4921,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>123</v>

--- a/data/allemand.xlsx
+++ b/data/allemand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="791">
   <si>
     <t>ID</t>
   </si>
@@ -3898,10 +3898,33 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3924,13 +3947,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4263,12 +4291,13 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
     <col min="10" max="10" width="39.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="62.5" bestFit="1" customWidth="1"/>
@@ -5610,6 +5639,9 @@
       <c r="I32" t="s">
         <v>248</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>Samuel hört auf Gott</v>
@@ -5649,6 +5681,9 @@
       <c r="I33" t="s">
         <v>248</v>
       </c>
+      <c r="J33" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
         <v>König Saul</v>
@@ -5688,6 +5723,9 @@
       <c r="I34" t="s">
         <v>248</v>
       </c>
+      <c r="J34" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
         <v>David und Goliat</v>
@@ -5730,6 +5768,9 @@
       <c r="I35" t="s">
         <v>248</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
         <v>David und Saul</v>
@@ -5769,6 +5810,9 @@
       <c r="I36" t="s">
         <v>248</v>
       </c>
+      <c r="J36" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
         <v>König David</v>
@@ -6438,6 +6482,9 @@
       <c r="I52" t="s">
         <v>400</v>
       </c>
+      <c r="J52" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
         <v>Gottes Sohn wird Mensch</v>
@@ -6477,6 +6524,9 @@
       <c r="I53" t="s">
         <v>400</v>
       </c>
+      <c r="J53" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
         <v>Gottes Botschaft an Maria</v>
@@ -6516,6 +6566,9 @@
       <c r="I54" t="s">
         <v>400</v>
       </c>
+      <c r="J54" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
         <v>Jesus wird geboren</v>
@@ -6555,6 +6608,9 @@
       <c r="I55" t="s">
         <v>400</v>
       </c>
+      <c r="J55" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
         <v>Johannes kündigt Jesus an</v>
@@ -6594,6 +6650,9 @@
       <c r="I56" t="s">
         <v>400</v>
       </c>
+      <c r="J56" s="1" t="s">
+        <v>554</v>
+      </c>
       <c r="K56" t="str">
         <f t="shared" si="0"/>
         <v>Jesus begegnet dem Teufel</v>
@@ -6634,7 +6693,7 @@
         <v>437</v>
       </c>
       <c r="J57" t="s">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
@@ -6676,7 +6735,7 @@
         <v>437</v>
       </c>
       <c r="J58" t="s">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
@@ -6721,7 +6780,7 @@
         <v>437</v>
       </c>
       <c r="J59" t="s">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
@@ -6763,7 +6822,7 @@
         <v>437</v>
       </c>
       <c r="J60" t="s">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
@@ -6805,7 +6864,7 @@
         <v>437</v>
       </c>
       <c r="J61" t="s">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
@@ -8557,6 +8616,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/allemand.xlsx
+++ b/data/allemand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1354,9 +1354,6 @@
   </si>
   <si>
     <t>Jean-Luc Emery</t>
-  </si>
-  <si>
-    <t>Animateur à la Ligue</t>
   </si>
   <si>
     <t>Fällt es dir leicht, Fehler einzugestehen?</t>
@@ -2547,9 +2544,6 @@
     <t>14. Gottes großer Plan</t>
   </si>
   <si>
-    <t>Christophe et Magali Konrad</t>
-  </si>
-  <si>
     <t>Direktor der Schule Factory</t>
   </si>
   <si>
@@ -3892,6 +3886,12 @@
   </si>
   <si>
     <t>Titel</t>
+  </si>
+  <si>
+    <t>Christophe und Magali Konrad</t>
+  </si>
+  <si>
+    <t>Jugendleiter</t>
   </si>
 </sst>
 </file>
@@ -4290,8 +4290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4336,7 +4336,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -5640,7 +5640,7 @@
         <v>248</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -5682,7 +5682,7 @@
         <v>248</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -5724,7 +5724,7 @@
         <v>248</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
@@ -5769,7 +5769,7 @@
         <v>248</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
@@ -5811,7 +5811,7 @@
         <v>248</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
@@ -5853,23 +5853,23 @@
         <v>286</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>790</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
         <v>Davids Reue</v>
       </c>
       <c r="L37" t="s">
+        <v>287</v>
+      </c>
+      <c r="M37" t="s">
         <v>288</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>289</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>290</v>
-      </c>
-      <c r="O37" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -5880,13 +5880,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" t="s">
         <v>292</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>293</v>
-      </c>
-      <c r="E38" t="s">
-        <v>294</v>
       </c>
       <c r="F38" t="s">
         <v>285</v>
@@ -5895,23 +5895,23 @@
         <v>286</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>790</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
         <v>Salomos Weisheit</v>
       </c>
       <c r="L38" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="s">
         <v>295</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>296</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>297</v>
-      </c>
-      <c r="O38" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -5922,13 +5922,13 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
+        <v>298</v>
+      </c>
+      <c r="D39" t="s">
         <v>299</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>300</v>
-      </c>
-      <c r="E39" t="s">
-        <v>301</v>
       </c>
       <c r="F39" t="s">
         <v>285</v>
@@ -5937,23 +5937,23 @@
         <v>286</v>
       </c>
       <c r="J39" t="s">
-        <v>287</v>
+        <v>790</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
         <v>Salomos Tempel</v>
       </c>
       <c r="L39" t="s">
+        <v>301</v>
+      </c>
+      <c r="M39" t="s">
         <v>302</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>303</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>304</v>
-      </c>
-      <c r="O39" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -5964,13 +5964,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" t="s">
         <v>306</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>307</v>
-      </c>
-      <c r="E40" t="s">
-        <v>308</v>
       </c>
       <c r="F40" t="s">
         <v>285</v>
@@ -5979,23 +5979,23 @@
         <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>790</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>
         <v>Elija und die Propheten</v>
       </c>
       <c r="L40" t="s">
+        <v>308</v>
+      </c>
+      <c r="M40" t="s">
         <v>309</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>310</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>311</v>
-      </c>
-      <c r="O40" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -6006,13 +6006,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" t="s">
         <v>313</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>314</v>
-      </c>
-      <c r="E41" t="s">
-        <v>315</v>
       </c>
       <c r="F41" t="s">
         <v>285</v>
@@ -6021,23 +6021,23 @@
         <v>286</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>790</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="0"/>
         <v>Der Untergang von Jerusalem</v>
       </c>
       <c r="L41" t="s">
+        <v>315</v>
+      </c>
+      <c r="M41" t="s">
         <v>316</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>317</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>318</v>
-      </c>
-      <c r="O41" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -6048,38 +6048,38 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" t="s">
         <v>320</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>321</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>322</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>323</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>324</v>
-      </c>
-      <c r="J42" t="s">
-        <v>325</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="0"/>
         <v>Der gute Hirte</v>
       </c>
       <c r="L42" t="s">
+        <v>325</v>
+      </c>
+      <c r="M42" t="s">
         <v>326</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>327</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>328</v>
-      </c>
-      <c r="O42" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -6090,38 +6090,38 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" t="s">
         <v>330</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>331</v>
       </c>
-      <c r="E43" t="s">
-        <v>332</v>
-      </c>
       <c r="F43" t="s">
+        <v>322</v>
+      </c>
+      <c r="I43" t="s">
         <v>323</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>324</v>
-      </c>
-      <c r="J43" t="s">
-        <v>325</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="0"/>
         <v>Vergebung für David</v>
       </c>
       <c r="L43" t="s">
+        <v>332</v>
+      </c>
+      <c r="M43" t="s">
         <v>333</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>334</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>335</v>
-      </c>
-      <c r="O43" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -6132,38 +6132,38 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" t="s">
         <v>337</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>338</v>
       </c>
-      <c r="E44" t="s">
-        <v>339</v>
-      </c>
       <c r="F44" t="s">
+        <v>322</v>
+      </c>
+      <c r="I44" t="s">
         <v>323</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>324</v>
-      </c>
-      <c r="J44" t="s">
-        <v>325</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="0"/>
         <v>Loblied von David</v>
       </c>
       <c r="L44" t="s">
+        <v>339</v>
+      </c>
+      <c r="M44" t="s">
         <v>340</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>341</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>342</v>
-      </c>
-      <c r="O44" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -6174,38 +6174,38 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" t="s">
         <v>344</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>345</v>
       </c>
-      <c r="E45" t="s">
-        <v>346</v>
-      </c>
       <c r="F45" t="s">
+        <v>322</v>
+      </c>
+      <c r="I45" t="s">
         <v>323</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>324</v>
-      </c>
-      <c r="J45" t="s">
-        <v>325</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="0"/>
         <v>Ratschläge für das Leben</v>
       </c>
       <c r="L45" t="s">
+        <v>346</v>
+      </c>
+      <c r="M45" t="s">
         <v>347</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>348</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>349</v>
-      </c>
-      <c r="O45" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -6216,38 +6216,38 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
+        <v>350</v>
+      </c>
+      <c r="D46" t="s">
         <v>351</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>352</v>
       </c>
-      <c r="E46" t="s">
-        <v>353</v>
-      </c>
       <c r="F46" t="s">
+        <v>322</v>
+      </c>
+      <c r="I46" t="s">
         <v>323</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>324</v>
-      </c>
-      <c r="J46" t="s">
-        <v>325</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Gottes Ordnungen </v>
       </c>
       <c r="L46" t="s">
+        <v>353</v>
+      </c>
+      <c r="M46" t="s">
         <v>354</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>355</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>356</v>
-      </c>
-      <c r="O46" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -6258,38 +6258,38 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" t="s">
         <v>358</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>359</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>360</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>361</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>362</v>
-      </c>
-      <c r="J47" t="s">
-        <v>363</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="0"/>
         <v>Jesajas Prophezeiung</v>
       </c>
       <c r="L47" t="s">
+        <v>363</v>
+      </c>
+      <c r="M47" t="s">
         <v>364</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>365</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>366</v>
-      </c>
-      <c r="O47" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -6300,38 +6300,38 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" t="s">
         <v>368</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>369</v>
       </c>
-      <c r="E48" t="s">
-        <v>370</v>
-      </c>
       <c r="F48" t="s">
+        <v>360</v>
+      </c>
+      <c r="I48" t="s">
         <v>361</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>362</v>
-      </c>
-      <c r="J48" t="s">
-        <v>363</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="0"/>
         <v>Jeremia wird Prophet</v>
       </c>
       <c r="L48" t="s">
+        <v>370</v>
+      </c>
+      <c r="M48" t="s">
         <v>371</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>372</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>373</v>
-      </c>
-      <c r="O48" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -6342,38 +6342,38 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
+        <v>374</v>
+      </c>
+      <c r="D49" t="s">
         <v>375</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>376</v>
       </c>
-      <c r="E49" t="s">
-        <v>377</v>
-      </c>
       <c r="F49" t="s">
+        <v>360</v>
+      </c>
+      <c r="I49" t="s">
         <v>361</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>362</v>
-      </c>
-      <c r="J49" t="s">
-        <v>363</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="0"/>
         <v>Gott beschützt Daniel</v>
       </c>
       <c r="L49" t="s">
+        <v>377</v>
+      </c>
+      <c r="M49" t="s">
         <v>378</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>379</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>380</v>
-      </c>
-      <c r="O49" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -6384,38 +6384,38 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" t="s">
         <v>382</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>383</v>
       </c>
-      <c r="E50" t="s">
-        <v>384</v>
-      </c>
       <c r="F50" t="s">
+        <v>360</v>
+      </c>
+      <c r="I50" t="s">
         <v>361</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>362</v>
-      </c>
-      <c r="J50" t="s">
-        <v>363</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="0"/>
         <v>Gottes Auftrag an Jona</v>
       </c>
       <c r="L50" t="s">
+        <v>384</v>
+      </c>
+      <c r="M50" t="s">
         <v>385</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>386</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>387</v>
-      </c>
-      <c r="O50" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -6426,38 +6426,38 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" t="s">
         <v>389</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>390</v>
       </c>
-      <c r="E51" t="s">
-        <v>391</v>
-      </c>
       <c r="F51" t="s">
+        <v>360</v>
+      </c>
+      <c r="I51" t="s">
         <v>361</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>362</v>
-      </c>
-      <c r="J51" t="s">
-        <v>363</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="0"/>
         <v>Gott redet durch Maleachi</v>
       </c>
       <c r="L51" t="s">
+        <v>391</v>
+      </c>
+      <c r="M51" t="s">
         <v>392</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>393</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>394</v>
-      </c>
-      <c r="O51" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -6468,38 +6468,38 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
+        <v>395</v>
+      </c>
+      <c r="D52" t="s">
         <v>396</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>397</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>398</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>399</v>
       </c>
-      <c r="I52" t="s">
-        <v>400</v>
-      </c>
       <c r="J52" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="0"/>
         <v>Gottes Sohn wird Mensch</v>
       </c>
       <c r="L52" t="s">
+        <v>400</v>
+      </c>
+      <c r="M52" t="s">
         <v>401</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>402</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>403</v>
-      </c>
-      <c r="O52" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -6510,38 +6510,38 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
+        <v>404</v>
+      </c>
+      <c r="D53" t="s">
         <v>405</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>406</v>
       </c>
-      <c r="E53" t="s">
-        <v>407</v>
-      </c>
       <c r="F53" t="s">
+        <v>398</v>
+      </c>
+      <c r="I53" t="s">
         <v>399</v>
       </c>
-      <c r="I53" t="s">
-        <v>400</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K53" t="str">
         <f t="shared" si="0"/>
         <v>Gottes Botschaft an Maria</v>
       </c>
       <c r="L53" t="s">
+        <v>407</v>
+      </c>
+      <c r="M53" t="s">
         <v>408</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>409</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>410</v>
-      </c>
-      <c r="O53" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -6552,38 +6552,38 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" t="s">
         <v>412</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>413</v>
       </c>
-      <c r="E54" t="s">
-        <v>414</v>
-      </c>
       <c r="F54" t="s">
+        <v>398</v>
+      </c>
+      <c r="I54" t="s">
         <v>399</v>
       </c>
-      <c r="I54" t="s">
-        <v>400</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K54" t="str">
         <f t="shared" si="0"/>
         <v>Jesus wird geboren</v>
       </c>
       <c r="L54" t="s">
+        <v>414</v>
+      </c>
+      <c r="M54" t="s">
         <v>415</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>416</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>417</v>
-      </c>
-      <c r="O54" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -6594,38 +6594,38 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" t="s">
         <v>419</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>420</v>
       </c>
-      <c r="E55" t="s">
-        <v>421</v>
-      </c>
       <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="I55" t="s">
         <v>399</v>
       </c>
-      <c r="I55" t="s">
-        <v>400</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K55" t="str">
         <f t="shared" si="0"/>
         <v>Johannes kündigt Jesus an</v>
       </c>
       <c r="L55" t="s">
+        <v>421</v>
+      </c>
+      <c r="M55" t="s">
         <v>422</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>423</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>424</v>
-      </c>
-      <c r="O55" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -6636,38 +6636,38 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
+        <v>425</v>
+      </c>
+      <c r="D56" t="s">
         <v>426</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>427</v>
       </c>
-      <c r="E56" t="s">
-        <v>428</v>
-      </c>
       <c r="F56" t="s">
+        <v>398</v>
+      </c>
+      <c r="I56" t="s">
         <v>399</v>
       </c>
-      <c r="I56" t="s">
-        <v>400</v>
-      </c>
       <c r="J56" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K56" t="str">
         <f t="shared" si="0"/>
         <v>Jesus begegnet dem Teufel</v>
       </c>
       <c r="L56" t="s">
+        <v>428</v>
+      </c>
+      <c r="M56" t="s">
         <v>429</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>430</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>431</v>
-      </c>
-      <c r="O56" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -6678,38 +6678,38 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57" t="s">
         <v>433</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>434</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>435</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>436</v>
       </c>
-      <c r="I57" t="s">
-        <v>437</v>
-      </c>
       <c r="J57" t="s">
-        <v>554</v>
+        <v>790</v>
       </c>
       <c r="K57" t="str">
         <f t="shared" si="0"/>
         <v>Die Bergpredigt</v>
       </c>
       <c r="L57" t="s">
+        <v>437</v>
+      </c>
+      <c r="M57" t="s">
         <v>438</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>439</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>440</v>
-      </c>
-      <c r="O57" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -6720,41 +6720,41 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
+        <v>441</v>
+      </c>
+      <c r="D58" t="s">
         <v>442</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>443</v>
       </c>
-      <c r="E58" t="s">
-        <v>444</v>
-      </c>
       <c r="F58" t="s">
+        <v>435</v>
+      </c>
+      <c r="I58" t="s">
         <v>436</v>
       </c>
-      <c r="I58" t="s">
-        <v>437</v>
-      </c>
       <c r="J58" t="s">
-        <v>554</v>
+        <v>790</v>
       </c>
       <c r="K58" t="str">
         <f t="shared" si="0"/>
         <v>Über das Gebet</v>
       </c>
       <c r="L58" t="s">
+        <v>444</v>
+      </c>
+      <c r="M58" t="s">
         <v>445</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>446</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>447</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>448</v>
-      </c>
-      <c r="P58" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -6765,38 +6765,38 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
+        <v>449</v>
+      </c>
+      <c r="D59" t="s">
         <v>450</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>451</v>
       </c>
-      <c r="E59" t="s">
-        <v>452</v>
-      </c>
       <c r="F59" t="s">
+        <v>435</v>
+      </c>
+      <c r="I59" t="s">
         <v>436</v>
       </c>
-      <c r="I59" t="s">
-        <v>437</v>
-      </c>
       <c r="J59" t="s">
-        <v>554</v>
+        <v>790</v>
       </c>
       <c r="K59" t="str">
         <f t="shared" si="0"/>
         <v>Jesus erzählt Geschichten</v>
       </c>
       <c r="L59" t="s">
+        <v>452</v>
+      </c>
+      <c r="M59" t="s">
         <v>453</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>454</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>455</v>
-      </c>
-      <c r="O59" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -6807,38 +6807,38 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
+        <v>456</v>
+      </c>
+      <c r="D60" t="s">
         <v>457</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>458</v>
       </c>
-      <c r="E60" t="s">
-        <v>459</v>
-      </c>
       <c r="F60" t="s">
+        <v>435</v>
+      </c>
+      <c r="I60" t="s">
         <v>436</v>
       </c>
-      <c r="I60" t="s">
-        <v>437</v>
-      </c>
       <c r="J60" t="s">
-        <v>554</v>
+        <v>790</v>
       </c>
       <c r="K60" t="str">
         <f t="shared" si="0"/>
         <v>Das wichtigste Gebot</v>
       </c>
       <c r="L60" t="s">
+        <v>459</v>
+      </c>
+      <c r="M60" t="s">
         <v>460</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>461</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>462</v>
-      </c>
-      <c r="O60" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -6849,38 +6849,38 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
+        <v>463</v>
+      </c>
+      <c r="D61" t="s">
         <v>464</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>465</v>
       </c>
-      <c r="E61" t="s">
-        <v>466</v>
-      </c>
       <c r="F61" t="s">
+        <v>435</v>
+      </c>
+      <c r="I61" t="s">
         <v>436</v>
       </c>
-      <c r="I61" t="s">
-        <v>437</v>
-      </c>
       <c r="J61" t="s">
-        <v>554</v>
+        <v>790</v>
       </c>
       <c r="K61" t="str">
         <f t="shared" si="0"/>
         <v>Jesus sucht die Verlorenen</v>
       </c>
       <c r="L61" t="s">
+        <v>466</v>
+      </c>
+      <c r="M61" t="s">
         <v>467</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>468</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>469</v>
-      </c>
-      <c r="O61" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -6891,38 +6891,38 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" t="s">
         <v>471</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>472</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>473</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>474</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>475</v>
-      </c>
-      <c r="J62" t="s">
-        <v>476</v>
       </c>
       <c r="K62" t="str">
         <f t="shared" si="0"/>
         <v>Jesus versorgt die Hungrigen</v>
       </c>
       <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="s">
         <v>477</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>478</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>479</v>
-      </c>
-      <c r="O62" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -6933,38 +6933,38 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
+        <v>480</v>
+      </c>
+      <c r="D63" t="s">
         <v>481</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>482</v>
       </c>
-      <c r="E63" t="s">
-        <v>483</v>
-      </c>
       <c r="F63" t="s">
+        <v>473</v>
+      </c>
+      <c r="I63" t="s">
         <v>474</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>475</v>
-      </c>
-      <c r="J63" t="s">
-        <v>476</v>
       </c>
       <c r="K63" t="str">
         <f t="shared" si="0"/>
         <v>Jesus geht auf dem Wasser</v>
       </c>
       <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="s">
         <v>484</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>485</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>486</v>
-      </c>
-      <c r="O63" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -6975,41 +6975,41 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
+        <v>487</v>
+      </c>
+      <c r="D64" t="s">
         <v>488</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>489</v>
       </c>
-      <c r="E64" t="s">
-        <v>490</v>
-      </c>
       <c r="F64" t="s">
+        <v>473</v>
+      </c>
+      <c r="I64" t="s">
         <v>474</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>475</v>
-      </c>
-      <c r="J64" t="s">
-        <v>476</v>
       </c>
       <c r="K64" t="str">
         <f t="shared" si="0"/>
         <v>Ein Blinder wird geheilt</v>
       </c>
       <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="s">
         <v>491</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>492</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>493</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>494</v>
-      </c>
-      <c r="P64" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -7020,38 +7020,38 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
+        <v>495</v>
+      </c>
+      <c r="D65" t="s">
         <v>496</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>497</v>
       </c>
-      <c r="E65" t="s">
-        <v>498</v>
-      </c>
       <c r="F65" t="s">
+        <v>473</v>
+      </c>
+      <c r="I65" t="s">
         <v>474</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>475</v>
-      </c>
-      <c r="J65" t="s">
-        <v>476</v>
       </c>
       <c r="K65" t="str">
         <f t="shared" si="0"/>
         <v>Ein Besessener wird frei</v>
       </c>
       <c r="L65" t="s">
+        <v>498</v>
+      </c>
+      <c r="M65" t="s">
         <v>499</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>500</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>501</v>
-      </c>
-      <c r="O65" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -7062,38 +7062,38 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
+        <v>502</v>
+      </c>
+      <c r="D66" t="s">
         <v>503</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>504</v>
       </c>
-      <c r="E66" t="s">
-        <v>505</v>
-      </c>
       <c r="F66" t="s">
+        <v>473</v>
+      </c>
+      <c r="I66" t="s">
         <v>474</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>475</v>
-      </c>
-      <c r="J66" t="s">
-        <v>476</v>
       </c>
       <c r="K66" t="str">
         <f t="shared" si="0"/>
         <v>Ein Toter wird lebendig</v>
       </c>
       <c r="L66" t="s">
+        <v>505</v>
+      </c>
+      <c r="M66" t="s">
         <v>506</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>507</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>508</v>
-      </c>
-      <c r="O66" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -7104,41 +7104,41 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
+        <v>509</v>
+      </c>
+      <c r="D67" t="s">
         <v>510</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>511</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>512</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
+        <v>789</v>
+      </c>
+      <c r="J67" t="s">
         <v>513</v>
-      </c>
-      <c r="I67" t="s">
-        <v>514</v>
-      </c>
-      <c r="J67" t="s">
-        <v>515</v>
       </c>
       <c r="K67" t="str">
         <f t="shared" ref="K67:K101" si="1">D67</f>
         <v>Das Abschiedsmahl</v>
       </c>
       <c r="L67" t="s">
+        <v>514</v>
+      </c>
+      <c r="M67" t="s">
+        <v>515</v>
+      </c>
+      <c r="N67" t="s">
         <v>516</v>
       </c>
-      <c r="M67" t="s">
+      <c r="O67" t="s">
         <v>517</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P67" t="s">
         <v>518</v>
-      </c>
-      <c r="O67" t="s">
-        <v>519</v>
-      </c>
-      <c r="P67" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -7149,38 +7149,38 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
+        <v>519</v>
+      </c>
+      <c r="D68" t="s">
+        <v>520</v>
+      </c>
+      <c r="E68" t="s">
         <v>521</v>
       </c>
-      <c r="D68" t="s">
-        <v>522</v>
-      </c>
-      <c r="E68" t="s">
-        <v>523</v>
-      </c>
       <c r="F68" t="s">
+        <v>512</v>
+      </c>
+      <c r="I68" t="s">
+        <v>789</v>
+      </c>
+      <c r="J68" t="s">
         <v>513</v>
-      </c>
-      <c r="I68" t="s">
-        <v>514</v>
-      </c>
-      <c r="J68" t="s">
-        <v>515</v>
       </c>
       <c r="K68" t="str">
         <f t="shared" si="1"/>
         <v>Jesus vor Gericht</v>
       </c>
       <c r="L68" t="s">
+        <v>522</v>
+      </c>
+      <c r="M68" t="s">
+        <v>523</v>
+      </c>
+      <c r="N68" t="s">
         <v>524</v>
       </c>
-      <c r="M68" t="s">
+      <c r="O68" t="s">
         <v>525</v>
-      </c>
-      <c r="N68" t="s">
-        <v>526</v>
-      </c>
-      <c r="O68" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -7191,38 +7191,38 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
+        <v>526</v>
+      </c>
+      <c r="D69" t="s">
+        <v>527</v>
+      </c>
+      <c r="E69" t="s">
         <v>528</v>
       </c>
-      <c r="D69" t="s">
-        <v>529</v>
-      </c>
-      <c r="E69" t="s">
-        <v>530</v>
-      </c>
       <c r="F69" t="s">
+        <v>512</v>
+      </c>
+      <c r="I69" t="s">
+        <v>789</v>
+      </c>
+      <c r="J69" t="s">
         <v>513</v>
-      </c>
-      <c r="I69" t="s">
-        <v>514</v>
-      </c>
-      <c r="J69" t="s">
-        <v>515</v>
       </c>
       <c r="K69" t="str">
         <f t="shared" si="1"/>
         <v>Jesus stirbt</v>
       </c>
       <c r="L69" t="s">
+        <v>529</v>
+      </c>
+      <c r="M69" t="s">
+        <v>530</v>
+      </c>
+      <c r="N69" t="s">
         <v>531</v>
       </c>
-      <c r="M69" t="s">
+      <c r="O69" t="s">
         <v>532</v>
-      </c>
-      <c r="N69" t="s">
-        <v>533</v>
-      </c>
-      <c r="O69" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -7233,38 +7233,38 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
+        <v>533</v>
+      </c>
+      <c r="D70" t="s">
+        <v>534</v>
+      </c>
+      <c r="E70" t="s">
         <v>535</v>
       </c>
-      <c r="D70" t="s">
-        <v>536</v>
-      </c>
-      <c r="E70" t="s">
-        <v>537</v>
-      </c>
       <c r="F70" t="s">
+        <v>512</v>
+      </c>
+      <c r="I70" t="s">
+        <v>789</v>
+      </c>
+      <c r="J70" t="s">
         <v>513</v>
-      </c>
-      <c r="I70" t="s">
-        <v>514</v>
-      </c>
-      <c r="J70" t="s">
-        <v>515</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="1"/>
         <v>Jesus lebt</v>
       </c>
       <c r="L70" t="s">
+        <v>536</v>
+      </c>
+      <c r="M70" t="s">
+        <v>537</v>
+      </c>
+      <c r="N70" t="s">
         <v>538</v>
       </c>
-      <c r="M70" t="s">
+      <c r="O70" t="s">
         <v>539</v>
-      </c>
-      <c r="N70" t="s">
-        <v>540</v>
-      </c>
-      <c r="O70" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -7275,38 +7275,38 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
+        <v>540</v>
+      </c>
+      <c r="D71" t="s">
+        <v>541</v>
+      </c>
+      <c r="E71" t="s">
         <v>542</v>
       </c>
-      <c r="D71" t="s">
-        <v>543</v>
-      </c>
-      <c r="E71" t="s">
-        <v>544</v>
-      </c>
       <c r="F71" t="s">
+        <v>512</v>
+      </c>
+      <c r="I71" t="s">
+        <v>789</v>
+      </c>
+      <c r="J71" t="s">
         <v>513</v>
-      </c>
-      <c r="I71" t="s">
-        <v>514</v>
-      </c>
-      <c r="J71" t="s">
-        <v>515</v>
       </c>
       <c r="K71" t="str">
         <f t="shared" si="1"/>
         <v>Jesus geht in den Himmel</v>
       </c>
       <c r="L71" t="s">
+        <v>543</v>
+      </c>
+      <c r="M71" t="s">
+        <v>544</v>
+      </c>
+      <c r="N71" t="s">
         <v>545</v>
       </c>
-      <c r="M71" t="s">
+      <c r="O71" t="s">
         <v>546</v>
-      </c>
-      <c r="N71" t="s">
-        <v>547</v>
-      </c>
-      <c r="O71" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -7317,38 +7317,38 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
+        <v>547</v>
+      </c>
+      <c r="D72" t="s">
+        <v>548</v>
+      </c>
+      <c r="E72" t="s">
         <v>549</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>550</v>
       </c>
-      <c r="E72" t="s">
+      <c r="I72" t="s">
         <v>551</v>
       </c>
-      <c r="F72" t="s">
+      <c r="J72" t="s">
         <v>552</v>
-      </c>
-      <c r="I72" t="s">
-        <v>553</v>
-      </c>
-      <c r="J72" t="s">
-        <v>554</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="1"/>
         <v>Der Tag des Heiligen Geistes</v>
       </c>
       <c r="L72" t="s">
+        <v>553</v>
+      </c>
+      <c r="M72" t="s">
+        <v>554</v>
+      </c>
+      <c r="N72" t="s">
         <v>555</v>
       </c>
-      <c r="M72" t="s">
+      <c r="O72" t="s">
         <v>556</v>
-      </c>
-      <c r="N72" t="s">
-        <v>557</v>
-      </c>
-      <c r="O72" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -7359,38 +7359,38 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
+        <v>557</v>
+      </c>
+      <c r="D73" t="s">
+        <v>558</v>
+      </c>
+      <c r="E73" t="s">
         <v>559</v>
       </c>
-      <c r="D73" t="s">
-        <v>560</v>
-      </c>
-      <c r="E73" t="s">
-        <v>561</v>
-      </c>
       <c r="F73" t="s">
+        <v>550</v>
+      </c>
+      <c r="I73" t="s">
+        <v>551</v>
+      </c>
+      <c r="J73" t="s">
         <v>552</v>
-      </c>
-      <c r="I73" t="s">
-        <v>553</v>
-      </c>
-      <c r="J73" t="s">
-        <v>554</v>
       </c>
       <c r="K73" t="str">
         <f t="shared" si="1"/>
         <v>Petrus heilt einen Gelähmten</v>
       </c>
       <c r="L73" t="s">
+        <v>560</v>
+      </c>
+      <c r="M73" t="s">
+        <v>561</v>
+      </c>
+      <c r="N73" t="s">
         <v>562</v>
       </c>
-      <c r="M73" t="s">
+      <c r="O73" t="s">
         <v>563</v>
-      </c>
-      <c r="N73" t="s">
-        <v>564</v>
-      </c>
-      <c r="O73" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -7401,38 +7401,38 @@
         <v>15</v>
       </c>
       <c r="C74" t="s">
+        <v>564</v>
+      </c>
+      <c r="D74" t="s">
+        <v>565</v>
+      </c>
+      <c r="E74" t="s">
         <v>566</v>
       </c>
-      <c r="D74" t="s">
-        <v>567</v>
-      </c>
-      <c r="E74" t="s">
-        <v>568</v>
-      </c>
       <c r="F74" t="s">
+        <v>550</v>
+      </c>
+      <c r="I74" t="s">
+        <v>551</v>
+      </c>
+      <c r="J74" t="s">
         <v>552</v>
-      </c>
-      <c r="I74" t="s">
-        <v>553</v>
-      </c>
-      <c r="J74" t="s">
-        <v>554</v>
       </c>
       <c r="K74" t="str">
         <f t="shared" si="1"/>
         <v>Stephanus leidet für seinen Glauben</v>
       </c>
       <c r="L74" t="s">
+        <v>567</v>
+      </c>
+      <c r="M74" t="s">
+        <v>568</v>
+      </c>
+      <c r="N74" t="s">
         <v>569</v>
       </c>
-      <c r="M74" t="s">
+      <c r="O74" t="s">
         <v>570</v>
-      </c>
-      <c r="N74" t="s">
-        <v>571</v>
-      </c>
-      <c r="O74" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -7443,38 +7443,38 @@
         <v>15</v>
       </c>
       <c r="C75" t="s">
+        <v>571</v>
+      </c>
+      <c r="D75" t="s">
+        <v>572</v>
+      </c>
+      <c r="E75" t="s">
         <v>573</v>
       </c>
-      <c r="D75" t="s">
-        <v>574</v>
-      </c>
-      <c r="E75" t="s">
-        <v>575</v>
-      </c>
       <c r="F75" t="s">
+        <v>550</v>
+      </c>
+      <c r="I75" t="s">
+        <v>551</v>
+      </c>
+      <c r="J75" t="s">
         <v>552</v>
-      </c>
-      <c r="I75" t="s">
-        <v>553</v>
-      </c>
-      <c r="J75" t="s">
-        <v>554</v>
       </c>
       <c r="K75" t="str">
         <f t="shared" si="1"/>
         <v>Philippus erzählt von Jesus</v>
       </c>
       <c r="L75" t="s">
+        <v>574</v>
+      </c>
+      <c r="M75" t="s">
+        <v>575</v>
+      </c>
+      <c r="N75" t="s">
         <v>576</v>
       </c>
-      <c r="M75" t="s">
+      <c r="O75" t="s">
         <v>577</v>
-      </c>
-      <c r="N75" t="s">
-        <v>578</v>
-      </c>
-      <c r="O75" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -7485,38 +7485,38 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
+        <v>578</v>
+      </c>
+      <c r="D76" t="s">
+        <v>579</v>
+      </c>
+      <c r="E76" t="s">
         <v>580</v>
       </c>
-      <c r="D76" t="s">
-        <v>581</v>
-      </c>
-      <c r="E76" t="s">
-        <v>582</v>
-      </c>
       <c r="F76" t="s">
+        <v>550</v>
+      </c>
+      <c r="I76" t="s">
+        <v>551</v>
+      </c>
+      <c r="J76" t="s">
         <v>552</v>
-      </c>
-      <c r="I76" t="s">
-        <v>553</v>
-      </c>
-      <c r="J76" t="s">
-        <v>554</v>
       </c>
       <c r="K76" t="str">
         <f t="shared" si="1"/>
         <v>Petrus‘ Erkenntnis</v>
       </c>
       <c r="L76" t="s">
+        <v>581</v>
+      </c>
+      <c r="M76" t="s">
+        <v>582</v>
+      </c>
+      <c r="N76" t="s">
         <v>583</v>
       </c>
-      <c r="M76" t="s">
+      <c r="O76" t="s">
         <v>584</v>
-      </c>
-      <c r="N76" t="s">
-        <v>585</v>
-      </c>
-      <c r="O76" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -7527,41 +7527,41 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
+        <v>585</v>
+      </c>
+      <c r="D77" t="s">
+        <v>586</v>
+      </c>
+      <c r="E77" t="s">
         <v>587</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>588</v>
       </c>
-      <c r="E77" t="s">
+      <c r="I77" t="s">
         <v>589</v>
       </c>
-      <c r="F77" t="s">
+      <c r="J77" t="s">
         <v>590</v>
-      </c>
-      <c r="I77" t="s">
-        <v>591</v>
-      </c>
-      <c r="J77" t="s">
-        <v>592</v>
       </c>
       <c r="K77" t="str">
         <f t="shared" si="1"/>
         <v>Saulus trifft Jesus</v>
       </c>
       <c r="L77" t="s">
+        <v>591</v>
+      </c>
+      <c r="M77" t="s">
+        <v>592</v>
+      </c>
+      <c r="N77" t="s">
         <v>593</v>
       </c>
-      <c r="M77" t="s">
+      <c r="O77" t="s">
         <v>594</v>
       </c>
-      <c r="N77" t="s">
+      <c r="P77" t="s">
         <v>595</v>
-      </c>
-      <c r="O77" t="s">
-        <v>596</v>
-      </c>
-      <c r="P77" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -7572,41 +7572,41 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
+        <v>596</v>
+      </c>
+      <c r="D78" t="s">
+        <v>597</v>
+      </c>
+      <c r="E78" t="s">
         <v>598</v>
       </c>
-      <c r="D78" t="s">
-        <v>599</v>
-      </c>
-      <c r="E78" t="s">
-        <v>600</v>
-      </c>
       <c r="F78" t="s">
+        <v>588</v>
+      </c>
+      <c r="I78" t="s">
+        <v>589</v>
+      </c>
+      <c r="J78" t="s">
         <v>590</v>
-      </c>
-      <c r="I78" t="s">
-        <v>591</v>
-      </c>
-      <c r="J78" t="s">
-        <v>592</v>
       </c>
       <c r="K78" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Paulus und Barnabas </v>
       </c>
       <c r="L78" t="s">
+        <v>599</v>
+      </c>
+      <c r="M78" t="s">
+        <v>600</v>
+      </c>
+      <c r="N78" t="s">
         <v>601</v>
       </c>
-      <c r="M78" t="s">
+      <c r="O78" t="s">
         <v>602</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>603</v>
-      </c>
-      <c r="O78" t="s">
-        <v>604</v>
-      </c>
-      <c r="P78" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -7617,41 +7617,41 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
+        <v>604</v>
+      </c>
+      <c r="D79" t="s">
+        <v>605</v>
+      </c>
+      <c r="E79" t="s">
         <v>606</v>
       </c>
-      <c r="D79" t="s">
-        <v>607</v>
-      </c>
-      <c r="E79" t="s">
-        <v>608</v>
-      </c>
       <c r="F79" t="s">
+        <v>588</v>
+      </c>
+      <c r="I79" t="s">
+        <v>589</v>
+      </c>
+      <c r="J79" t="s">
         <v>590</v>
-      </c>
-      <c r="I79" t="s">
-        <v>591</v>
-      </c>
-      <c r="J79" t="s">
-        <v>592</v>
       </c>
       <c r="K79" t="str">
         <f t="shared" si="1"/>
         <v>Gottes Gnade gilt für alle</v>
       </c>
       <c r="L79" t="s">
+        <v>607</v>
+      </c>
+      <c r="M79" t="s">
+        <v>608</v>
+      </c>
+      <c r="N79" t="s">
         <v>609</v>
       </c>
-      <c r="M79" t="s">
+      <c r="O79" t="s">
         <v>610</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
         <v>611</v>
-      </c>
-      <c r="O79" t="s">
-        <v>612</v>
-      </c>
-      <c r="P79" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -7662,41 +7662,41 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
+        <v>612</v>
+      </c>
+      <c r="D80" t="s">
+        <v>613</v>
+      </c>
+      <c r="E80" t="s">
         <v>614</v>
       </c>
-      <c r="D80" t="s">
-        <v>615</v>
-      </c>
-      <c r="E80" t="s">
-        <v>616</v>
-      </c>
       <c r="F80" t="s">
+        <v>588</v>
+      </c>
+      <c r="I80" t="s">
+        <v>589</v>
+      </c>
+      <c r="J80" t="s">
         <v>590</v>
-      </c>
-      <c r="I80" t="s">
-        <v>591</v>
-      </c>
-      <c r="J80" t="s">
-        <v>592</v>
       </c>
       <c r="K80" t="str">
         <f t="shared" si="1"/>
         <v>Gottes Botschaft wird verbreitet</v>
       </c>
       <c r="L80" t="s">
+        <v>615</v>
+      </c>
+      <c r="M80" t="s">
+        <v>616</v>
+      </c>
+      <c r="N80" t="s">
         <v>617</v>
       </c>
-      <c r="M80" t="s">
+      <c r="O80" t="s">
         <v>618</v>
       </c>
-      <c r="N80" t="s">
+      <c r="P80" t="s">
         <v>619</v>
-      </c>
-      <c r="O80" t="s">
-        <v>620</v>
-      </c>
-      <c r="P80" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -7707,41 +7707,41 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
+        <v>620</v>
+      </c>
+      <c r="D81" t="s">
+        <v>621</v>
+      </c>
+      <c r="E81" t="s">
         <v>622</v>
       </c>
-      <c r="D81" t="s">
-        <v>623</v>
-      </c>
-      <c r="E81" t="s">
-        <v>624</v>
-      </c>
       <c r="F81" t="s">
+        <v>588</v>
+      </c>
+      <c r="I81" t="s">
+        <v>589</v>
+      </c>
+      <c r="J81" t="s">
         <v>590</v>
-      </c>
-      <c r="I81" t="s">
-        <v>591</v>
-      </c>
-      <c r="J81" t="s">
-        <v>592</v>
       </c>
       <c r="K81" t="str">
         <f t="shared" si="1"/>
         <v>Paulus erleidet Schiffbruch</v>
       </c>
       <c r="L81" t="s">
+        <v>623</v>
+      </c>
+      <c r="M81" t="s">
+        <v>624</v>
+      </c>
+      <c r="N81" t="s">
         <v>625</v>
       </c>
-      <c r="M81" t="s">
+      <c r="O81" t="s">
         <v>626</v>
       </c>
-      <c r="N81" t="s">
+      <c r="P81" t="s">
         <v>627</v>
-      </c>
-      <c r="O81" t="s">
-        <v>628</v>
-      </c>
-      <c r="P81" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -7752,38 +7752,38 @@
         <v>17</v>
       </c>
       <c r="C82" t="s">
+        <v>628</v>
+      </c>
+      <c r="D82" t="s">
+        <v>629</v>
+      </c>
+      <c r="E82" t="s">
         <v>630</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>631</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>632</v>
       </c>
-      <c r="F82" t="s">
+      <c r="J82" t="s">
         <v>633</v>
-      </c>
-      <c r="I82" t="s">
-        <v>634</v>
-      </c>
-      <c r="J82" t="s">
-        <v>635</v>
       </c>
       <c r="K82" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Gottes Berufene </v>
       </c>
       <c r="L82" t="s">
+        <v>634</v>
+      </c>
+      <c r="M82" t="s">
+        <v>635</v>
+      </c>
+      <c r="N82" t="s">
         <v>636</v>
       </c>
-      <c r="M82" t="s">
+      <c r="O82" t="s">
         <v>637</v>
-      </c>
-      <c r="N82" t="s">
-        <v>638</v>
-      </c>
-      <c r="O82" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -7794,41 +7794,41 @@
         <v>17</v>
       </c>
       <c r="C83" t="s">
+        <v>638</v>
+      </c>
+      <c r="D83" t="s">
+        <v>639</v>
+      </c>
+      <c r="E83" t="s">
         <v>640</v>
       </c>
-      <c r="D83" t="s">
-        <v>641</v>
-      </c>
-      <c r="E83" t="s">
-        <v>642</v>
-      </c>
       <c r="F83" t="s">
+        <v>631</v>
+      </c>
+      <c r="I83" t="s">
+        <v>632</v>
+      </c>
+      <c r="J83" t="s">
         <v>633</v>
-      </c>
-      <c r="I83" t="s">
-        <v>634</v>
-      </c>
-      <c r="J83" t="s">
-        <v>635</v>
       </c>
       <c r="K83" t="str">
         <f t="shared" si="1"/>
         <v>Was der Heilige Geist tut</v>
       </c>
       <c r="L83" t="s">
+        <v>641</v>
+      </c>
+      <c r="M83" t="s">
+        <v>642</v>
+      </c>
+      <c r="N83" t="s">
         <v>643</v>
       </c>
-      <c r="M83" t="s">
+      <c r="O83" t="s">
         <v>644</v>
       </c>
-      <c r="N83" t="s">
+      <c r="P83" t="s">
         <v>645</v>
-      </c>
-      <c r="O83" t="s">
-        <v>646</v>
-      </c>
-      <c r="P83" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -7839,41 +7839,41 @@
         <v>17</v>
       </c>
       <c r="C84" t="s">
+        <v>646</v>
+      </c>
+      <c r="D84" t="s">
+        <v>647</v>
+      </c>
+      <c r="E84" t="s">
         <v>648</v>
       </c>
-      <c r="D84" t="s">
-        <v>649</v>
-      </c>
-      <c r="E84" t="s">
-        <v>650</v>
-      </c>
       <c r="F84" t="s">
+        <v>631</v>
+      </c>
+      <c r="I84" t="s">
+        <v>632</v>
+      </c>
+      <c r="J84" t="s">
         <v>633</v>
-      </c>
-      <c r="I84" t="s">
-        <v>634</v>
-      </c>
-      <c r="J84" t="s">
-        <v>635</v>
       </c>
       <c r="K84" t="str">
         <f t="shared" si="1"/>
         <v>Gottes Waffenrüstung</v>
       </c>
       <c r="L84" t="s">
+        <v>649</v>
+      </c>
+      <c r="M84" t="s">
+        <v>650</v>
+      </c>
+      <c r="N84" t="s">
         <v>651</v>
       </c>
-      <c r="M84" t="s">
+      <c r="O84" t="s">
         <v>652</v>
       </c>
-      <c r="N84" t="s">
+      <c r="P84" t="s">
         <v>653</v>
-      </c>
-      <c r="O84" t="s">
-        <v>654</v>
-      </c>
-      <c r="P84" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7884,41 +7884,41 @@
         <v>17</v>
       </c>
       <c r="C85" t="s">
+        <v>654</v>
+      </c>
+      <c r="D85" t="s">
+        <v>655</v>
+      </c>
+      <c r="E85" t="s">
         <v>656</v>
       </c>
-      <c r="D85" t="s">
-        <v>657</v>
-      </c>
-      <c r="E85" t="s">
-        <v>658</v>
-      </c>
       <c r="F85" t="s">
+        <v>631</v>
+      </c>
+      <c r="I85" t="s">
+        <v>632</v>
+      </c>
+      <c r="J85" t="s">
         <v>633</v>
-      </c>
-      <c r="I85" t="s">
-        <v>634</v>
-      </c>
-      <c r="J85" t="s">
-        <v>635</v>
       </c>
       <c r="K85" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Grund zur Freude </v>
       </c>
       <c r="L85" t="s">
+        <v>657</v>
+      </c>
+      <c r="M85" t="s">
+        <v>658</v>
+      </c>
+      <c r="N85" t="s">
         <v>659</v>
       </c>
-      <c r="M85" t="s">
+      <c r="O85" t="s">
         <v>660</v>
       </c>
-      <c r="N85" t="s">
+      <c r="P85" t="s">
         <v>661</v>
-      </c>
-      <c r="O85" t="s">
-        <v>662</v>
-      </c>
-      <c r="P85" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7929,38 +7929,38 @@
         <v>17</v>
       </c>
       <c r="C86" t="s">
+        <v>662</v>
+      </c>
+      <c r="D86" t="s">
+        <v>663</v>
+      </c>
+      <c r="E86" t="s">
         <v>664</v>
       </c>
-      <c r="D86" t="s">
-        <v>665</v>
-      </c>
-      <c r="E86" t="s">
-        <v>666</v>
-      </c>
       <c r="F86" t="s">
+        <v>631</v>
+      </c>
+      <c r="I86" t="s">
+        <v>632</v>
+      </c>
+      <c r="J86" t="s">
         <v>633</v>
-      </c>
-      <c r="I86" t="s">
-        <v>634</v>
-      </c>
-      <c r="J86" t="s">
-        <v>635</v>
       </c>
       <c r="K86" t="str">
         <f t="shared" si="1"/>
         <v>Starker Glaube</v>
       </c>
       <c r="L86" t="s">
+        <v>665</v>
+      </c>
+      <c r="M86" t="s">
+        <v>666</v>
+      </c>
+      <c r="N86" t="s">
         <v>667</v>
       </c>
-      <c r="M86" t="s">
+      <c r="O86" t="s">
         <v>668</v>
-      </c>
-      <c r="N86" t="s">
-        <v>669</v>
-      </c>
-      <c r="O86" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7971,38 +7971,38 @@
         <v>18</v>
       </c>
       <c r="C87" t="s">
+        <v>669</v>
+      </c>
+      <c r="D87" t="s">
+        <v>670</v>
+      </c>
+      <c r="E87" t="s">
         <v>671</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>672</v>
       </c>
-      <c r="E87" t="s">
+      <c r="I87" t="s">
         <v>673</v>
       </c>
-      <c r="F87" t="s">
+      <c r="J87" t="s">
         <v>674</v>
-      </c>
-      <c r="I87" t="s">
-        <v>675</v>
-      </c>
-      <c r="J87" t="s">
-        <v>676</v>
       </c>
       <c r="K87" t="str">
         <f t="shared" si="1"/>
         <v>Leitung der Gemeinde</v>
       </c>
       <c r="L87" t="s">
+        <v>675</v>
+      </c>
+      <c r="M87" t="s">
+        <v>676</v>
+      </c>
+      <c r="N87" t="s">
         <v>677</v>
       </c>
-      <c r="M87" t="s">
+      <c r="O87" t="s">
         <v>678</v>
-      </c>
-      <c r="N87" t="s">
-        <v>679</v>
-      </c>
-      <c r="O87" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -8013,38 +8013,38 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
+        <v>679</v>
+      </c>
+      <c r="D88" t="s">
+        <v>680</v>
+      </c>
+      <c r="E88" t="s">
         <v>681</v>
       </c>
-      <c r="D88" t="s">
-        <v>682</v>
-      </c>
-      <c r="E88" t="s">
-        <v>683</v>
-      </c>
       <c r="F88" t="s">
+        <v>672</v>
+      </c>
+      <c r="I88" t="s">
+        <v>673</v>
+      </c>
+      <c r="J88" t="s">
         <v>674</v>
-      </c>
-      <c r="I88" t="s">
-        <v>675</v>
-      </c>
-      <c r="J88" t="s">
-        <v>676</v>
       </c>
       <c r="K88" t="str">
         <f t="shared" si="1"/>
         <v>Zu Gott gehören</v>
       </c>
       <c r="L88" t="s">
+        <v>682</v>
+      </c>
+      <c r="M88" t="s">
+        <v>683</v>
+      </c>
+      <c r="N88" t="s">
         <v>684</v>
       </c>
-      <c r="M88" t="s">
+      <c r="O88" t="s">
         <v>685</v>
-      </c>
-      <c r="N88" t="s">
-        <v>686</v>
-      </c>
-      <c r="O88" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -8055,41 +8055,41 @@
         <v>18</v>
       </c>
       <c r="C89" t="s">
+        <v>686</v>
+      </c>
+      <c r="D89" t="s">
+        <v>687</v>
+      </c>
+      <c r="E89" t="s">
         <v>688</v>
       </c>
-      <c r="D89" t="s">
-        <v>689</v>
-      </c>
-      <c r="E89" t="s">
-        <v>690</v>
-      </c>
       <c r="F89" t="s">
+        <v>672</v>
+      </c>
+      <c r="I89" t="s">
+        <v>673</v>
+      </c>
+      <c r="J89" t="s">
         <v>674</v>
-      </c>
-      <c r="I89" t="s">
-        <v>675</v>
-      </c>
-      <c r="J89" t="s">
-        <v>676</v>
       </c>
       <c r="K89" t="str">
         <f t="shared" si="1"/>
         <v>Für Gott da sein</v>
       </c>
       <c r="L89" t="s">
+        <v>689</v>
+      </c>
+      <c r="M89" t="s">
+        <v>690</v>
+      </c>
+      <c r="N89" t="s">
         <v>691</v>
       </c>
-      <c r="M89" t="s">
+      <c r="O89" t="s">
         <v>692</v>
       </c>
-      <c r="N89" t="s">
+      <c r="P89" t="s">
         <v>693</v>
-      </c>
-      <c r="O89" t="s">
-        <v>694</v>
-      </c>
-      <c r="P89" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -8100,38 +8100,38 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
+        <v>694</v>
+      </c>
+      <c r="D90" t="s">
+        <v>695</v>
+      </c>
+      <c r="E90" t="s">
         <v>696</v>
       </c>
-      <c r="D90" t="s">
-        <v>697</v>
-      </c>
-      <c r="E90" t="s">
-        <v>698</v>
-      </c>
       <c r="F90" t="s">
+        <v>672</v>
+      </c>
+      <c r="I90" t="s">
+        <v>673</v>
+      </c>
+      <c r="J90" t="s">
         <v>674</v>
-      </c>
-      <c r="I90" t="s">
-        <v>675</v>
-      </c>
-      <c r="J90" t="s">
-        <v>676</v>
       </c>
       <c r="K90" t="str">
         <f t="shared" si="1"/>
         <v>Gottes Wort</v>
       </c>
       <c r="L90" t="s">
+        <v>697</v>
+      </c>
+      <c r="M90" t="s">
+        <v>698</v>
+      </c>
+      <c r="N90" t="s">
         <v>699</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>700</v>
-      </c>
-      <c r="N90" t="s">
-        <v>701</v>
-      </c>
-      <c r="O90" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -8142,41 +8142,41 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
+        <v>701</v>
+      </c>
+      <c r="D91" t="s">
+        <v>702</v>
+      </c>
+      <c r="E91" t="s">
         <v>703</v>
       </c>
-      <c r="D91" t="s">
-        <v>704</v>
-      </c>
-      <c r="E91" t="s">
-        <v>705</v>
-      </c>
       <c r="F91" t="s">
+        <v>672</v>
+      </c>
+      <c r="I91" t="s">
+        <v>673</v>
+      </c>
+      <c r="J91" t="s">
         <v>674</v>
-      </c>
-      <c r="I91" t="s">
-        <v>675</v>
-      </c>
-      <c r="J91" t="s">
-        <v>676</v>
       </c>
       <c r="K91" t="str">
         <f t="shared" si="1"/>
         <v>Bereit sein</v>
       </c>
       <c r="L91" t="s">
+        <v>704</v>
+      </c>
+      <c r="M91" t="s">
+        <v>705</v>
+      </c>
+      <c r="N91" t="s">
         <v>706</v>
       </c>
-      <c r="M91" t="s">
+      <c r="O91" t="s">
         <v>707</v>
       </c>
-      <c r="N91" t="s">
+      <c r="P91" t="s">
         <v>708</v>
-      </c>
-      <c r="O91" t="s">
-        <v>709</v>
-      </c>
-      <c r="P91" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -8187,41 +8187,41 @@
         <v>19</v>
       </c>
       <c r="C92" t="s">
+        <v>709</v>
+      </c>
+      <c r="D92" t="s">
+        <v>710</v>
+      </c>
+      <c r="E92" t="s">
         <v>711</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>712</v>
       </c>
-      <c r="E92" t="s">
-        <v>713</v>
-      </c>
-      <c r="F92" t="s">
-        <v>714</v>
-      </c>
       <c r="I92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J92" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K92" t="str">
         <f t="shared" si="1"/>
         <v>Gottes Liebe</v>
       </c>
       <c r="L92" t="s">
+        <v>713</v>
+      </c>
+      <c r="M92" t="s">
+        <v>714</v>
+      </c>
+      <c r="N92" t="s">
         <v>715</v>
       </c>
-      <c r="M92" t="s">
+      <c r="O92" t="s">
         <v>716</v>
       </c>
-      <c r="N92" t="s">
+      <c r="P92" t="s">
         <v>717</v>
-      </c>
-      <c r="O92" t="s">
-        <v>718</v>
-      </c>
-      <c r="P92" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -8232,41 +8232,41 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
+        <v>718</v>
+      </c>
+      <c r="D93" t="s">
+        <v>719</v>
+      </c>
+      <c r="E93" t="s">
         <v>720</v>
       </c>
-      <c r="D93" t="s">
-        <v>721</v>
-      </c>
-      <c r="E93" t="s">
-        <v>722</v>
-      </c>
       <c r="F93" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I93" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J93" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K93" t="str">
         <f t="shared" si="1"/>
         <v>Ein neuer Mensch</v>
       </c>
       <c r="L93" t="s">
+        <v>721</v>
+      </c>
+      <c r="M93" t="s">
+        <v>722</v>
+      </c>
+      <c r="N93" t="s">
         <v>723</v>
       </c>
-      <c r="M93" t="s">
+      <c r="O93" t="s">
         <v>724</v>
       </c>
-      <c r="N93" t="s">
+      <c r="P93" t="s">
         <v>725</v>
-      </c>
-      <c r="O93" t="s">
-        <v>726</v>
-      </c>
-      <c r="P93" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -8277,38 +8277,38 @@
         <v>19</v>
       </c>
       <c r="C94" t="s">
+        <v>726</v>
+      </c>
+      <c r="D94" t="s">
+        <v>727</v>
+      </c>
+      <c r="E94" t="s">
         <v>728</v>
       </c>
-      <c r="D94" t="s">
-        <v>729</v>
-      </c>
-      <c r="E94" t="s">
-        <v>730</v>
-      </c>
       <c r="F94" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I94" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J94" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K94" t="str">
         <f t="shared" si="1"/>
         <v>Zu Jesus kommen</v>
       </c>
       <c r="L94" t="s">
+        <v>729</v>
+      </c>
+      <c r="M94" t="s">
+        <v>730</v>
+      </c>
+      <c r="N94" t="s">
         <v>731</v>
       </c>
-      <c r="M94" t="s">
+      <c r="O94" t="s">
         <v>732</v>
-      </c>
-      <c r="N94" t="s">
-        <v>733</v>
-      </c>
-      <c r="O94" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -8319,41 +8319,41 @@
         <v>19</v>
       </c>
       <c r="C95" t="s">
+        <v>733</v>
+      </c>
+      <c r="D95" t="s">
+        <v>734</v>
+      </c>
+      <c r="E95" t="s">
         <v>735</v>
       </c>
-      <c r="D95" t="s">
-        <v>736</v>
-      </c>
-      <c r="E95" t="s">
-        <v>737</v>
-      </c>
       <c r="F95" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I95" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J95" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K95" t="str">
         <f t="shared" si="1"/>
         <v>Glauben und Tun</v>
       </c>
       <c r="L95" t="s">
+        <v>736</v>
+      </c>
+      <c r="M95" t="s">
+        <v>737</v>
+      </c>
+      <c r="N95" t="s">
         <v>738</v>
       </c>
-      <c r="M95" t="s">
+      <c r="O95" t="s">
         <v>739</v>
       </c>
-      <c r="N95" t="s">
+      <c r="P95" t="s">
         <v>740</v>
-      </c>
-      <c r="O95" t="s">
-        <v>741</v>
-      </c>
-      <c r="P95" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -8364,41 +8364,41 @@
         <v>19</v>
       </c>
       <c r="C96" t="s">
+        <v>741</v>
+      </c>
+      <c r="D96" t="s">
+        <v>742</v>
+      </c>
+      <c r="E96" t="s">
         <v>743</v>
       </c>
-      <c r="D96" t="s">
-        <v>744</v>
-      </c>
-      <c r="E96" t="s">
-        <v>745</v>
-      </c>
       <c r="F96" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I96" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J96" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K96" t="str">
         <f t="shared" si="1"/>
         <v>Was Lieben bedeutet</v>
       </c>
       <c r="L96" t="s">
+        <v>744</v>
+      </c>
+      <c r="M96" t="s">
+        <v>745</v>
+      </c>
+      <c r="N96" t="s">
         <v>746</v>
       </c>
-      <c r="M96" t="s">
+      <c r="O96" t="s">
         <v>747</v>
       </c>
-      <c r="N96" t="s">
+      <c r="P96" t="s">
         <v>748</v>
-      </c>
-      <c r="O96" t="s">
-        <v>749</v>
-      </c>
-      <c r="P96" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -8409,38 +8409,38 @@
         <v>20</v>
       </c>
       <c r="C97" t="s">
+        <v>749</v>
+      </c>
+      <c r="D97" t="s">
+        <v>750</v>
+      </c>
+      <c r="E97" t="s">
         <v>751</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>752</v>
       </c>
-      <c r="E97" t="s">
+      <c r="I97" t="s">
         <v>753</v>
       </c>
-      <c r="F97" t="s">
+      <c r="J97" t="s">
         <v>754</v>
-      </c>
-      <c r="I97" t="s">
-        <v>755</v>
-      </c>
-      <c r="J97" t="s">
-        <v>756</v>
       </c>
       <c r="K97" t="str">
         <f t="shared" si="1"/>
         <v>Johannes hat eine Vision</v>
       </c>
       <c r="L97" t="s">
+        <v>755</v>
+      </c>
+      <c r="M97" t="s">
+        <v>756</v>
+      </c>
+      <c r="N97" t="s">
         <v>757</v>
       </c>
-      <c r="M97" t="s">
+      <c r="O97" t="s">
         <v>758</v>
-      </c>
-      <c r="N97" t="s">
-        <v>759</v>
-      </c>
-      <c r="O97" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -8451,38 +8451,38 @@
         <v>20</v>
       </c>
       <c r="C98" t="s">
+        <v>759</v>
+      </c>
+      <c r="D98" t="s">
+        <v>760</v>
+      </c>
+      <c r="E98" t="s">
         <v>761</v>
       </c>
-      <c r="D98" t="s">
-        <v>762</v>
-      </c>
-      <c r="E98" t="s">
-        <v>763</v>
-      </c>
       <c r="F98" t="s">
+        <v>752</v>
+      </c>
+      <c r="I98" t="s">
+        <v>753</v>
+      </c>
+      <c r="J98" t="s">
         <v>754</v>
-      </c>
-      <c r="I98" t="s">
-        <v>755</v>
-      </c>
-      <c r="J98" t="s">
-        <v>756</v>
       </c>
       <c r="K98" t="str">
         <f t="shared" si="1"/>
         <v>Worte an die Kirche</v>
       </c>
       <c r="L98" t="s">
+        <v>762</v>
+      </c>
+      <c r="M98" t="s">
+        <v>763</v>
+      </c>
+      <c r="N98" t="s">
         <v>764</v>
       </c>
-      <c r="M98" t="s">
+      <c r="O98" t="s">
         <v>765</v>
-      </c>
-      <c r="N98" t="s">
-        <v>766</v>
-      </c>
-      <c r="O98" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -8493,41 +8493,41 @@
         <v>20</v>
       </c>
       <c r="C99" t="s">
+        <v>766</v>
+      </c>
+      <c r="D99" t="s">
+        <v>767</v>
+      </c>
+      <c r="E99" t="s">
         <v>768</v>
       </c>
-      <c r="D99" t="s">
-        <v>769</v>
-      </c>
-      <c r="E99" t="s">
-        <v>770</v>
-      </c>
       <c r="F99" t="s">
+        <v>752</v>
+      </c>
+      <c r="I99" t="s">
+        <v>753</v>
+      </c>
+      <c r="J99" t="s">
         <v>754</v>
-      </c>
-      <c r="I99" t="s">
-        <v>755</v>
-      </c>
-      <c r="J99" t="s">
-        <v>756</v>
       </c>
       <c r="K99" t="str">
         <f t="shared" si="1"/>
         <v>Wie es bei Gott sein wird</v>
       </c>
       <c r="L99" t="s">
+        <v>769</v>
+      </c>
+      <c r="M99" t="s">
+        <v>770</v>
+      </c>
+      <c r="N99" t="s">
         <v>771</v>
       </c>
-      <c r="M99" t="s">
+      <c r="O99" t="s">
         <v>772</v>
       </c>
-      <c r="N99" t="s">
+      <c r="P99" t="s">
         <v>773</v>
-      </c>
-      <c r="O99" t="s">
-        <v>774</v>
-      </c>
-      <c r="P99" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -8538,38 +8538,38 @@
         <v>20</v>
       </c>
       <c r="C100" t="s">
+        <v>774</v>
+      </c>
+      <c r="D100" t="s">
+        <v>775</v>
+      </c>
+      <c r="E100" t="s">
         <v>776</v>
       </c>
-      <c r="D100" t="s">
-        <v>777</v>
-      </c>
-      <c r="E100" t="s">
-        <v>778</v>
-      </c>
       <c r="F100" t="s">
+        <v>752</v>
+      </c>
+      <c r="I100" t="s">
+        <v>753</v>
+      </c>
+      <c r="J100" t="s">
         <v>754</v>
-      </c>
-      <c r="I100" t="s">
-        <v>755</v>
-      </c>
-      <c r="J100" t="s">
-        <v>756</v>
       </c>
       <c r="K100" t="str">
         <f t="shared" si="1"/>
         <v>Gott ist der Herrscher</v>
       </c>
       <c r="L100" t="s">
+        <v>777</v>
+      </c>
+      <c r="M100" t="s">
+        <v>778</v>
+      </c>
+      <c r="N100" t="s">
         <v>779</v>
       </c>
-      <c r="M100" t="s">
+      <c r="O100" t="s">
         <v>780</v>
-      </c>
-      <c r="N100" t="s">
-        <v>781</v>
-      </c>
-      <c r="O100" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -8580,38 +8580,38 @@
         <v>20</v>
       </c>
       <c r="C101" t="s">
+        <v>781</v>
+      </c>
+      <c r="D101" t="s">
+        <v>782</v>
+      </c>
+      <c r="E101" t="s">
         <v>783</v>
       </c>
-      <c r="D101" t="s">
-        <v>784</v>
-      </c>
-      <c r="E101" t="s">
-        <v>785</v>
-      </c>
       <c r="F101" t="s">
+        <v>752</v>
+      </c>
+      <c r="I101" t="s">
+        <v>753</v>
+      </c>
+      <c r="J101" t="s">
         <v>754</v>
-      </c>
-      <c r="I101" t="s">
-        <v>755</v>
-      </c>
-      <c r="J101" t="s">
-        <v>756</v>
       </c>
       <c r="K101" t="str">
         <f t="shared" si="1"/>
         <v>Gott macht alles neu</v>
       </c>
       <c r="L101" t="s">
+        <v>784</v>
+      </c>
+      <c r="M101" t="s">
+        <v>785</v>
+      </c>
+      <c r="N101" t="s">
         <v>786</v>
       </c>
-      <c r="M101" t="s">
+      <c r="O101" t="s">
         <v>787</v>
-      </c>
-      <c r="N101" t="s">
-        <v>788</v>
-      </c>
-      <c r="O101" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>
